--- a/MAE-MAPE.xlsx
+++ b/MAE-MAPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\OneDrive\Υπολογιστής\MS in Data Science\Fall 2020\Introduction to Big Data\Team Project\Kraken\Part A\mg-grpj-part-a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C359DE22-C1F7-4DB2-8E96-88E51A433815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAF9A1-9391-4615-9D4E-D7E04FB91300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{C269249F-5F35-48F3-8FCB-84367A485163}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t xml:space="preserve">         MAE            K</t>
   </si>
   <si>
-    <t>Similar</t>
-  </si>
-  <si>
     <t xml:space="preserve">       MAPE            K</t>
   </si>
   <si>
     <t>New Pearson</t>
+  </si>
+  <si>
+    <t>Cosine</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1017,7 +1017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1804,7 +1804,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2985,7 +2985,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3592,7 +3592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4199,7 +4199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4806,7 +4806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similar</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10575,7 +10575,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10585,13 +10585,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10764,16 +10764,16 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10956,7 +10956,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10966,13 +10966,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11065,16 +11065,16 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89AB58A-C320-4BAD-810A-D4D44592CA70}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11185,13 +11187,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11284,16 +11286,16 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11395,9 +11397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E49A9A-1F5C-4655-89E0-8D1DD6492583}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11406,13 +11406,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11505,16 +11505,16 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/MAE-MAPE.xlsx
+++ b/MAE-MAPE.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\OneDrive\Υπολογιστής\MS in Data Science\Fall 2020\Introduction to Big Data\Team Project\Kraken\Part A\mg-grpj-part-a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAF9A1-9391-4615-9D4E-D7E04FB91300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644FDF4B-1E7B-40DD-8EAF-7AA502E6E3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{C269249F-5F35-48F3-8FCB-84367A485163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="4" xr2:uid="{C269249F-5F35-48F3-8FCB-84367A485163}"/>
   </bookViews>
   <sheets>
     <sheet name="150-200" sheetId="1" r:id="rId1"/>
     <sheet name="&gt;500" sheetId="4" r:id="rId2"/>
     <sheet name="15" sheetId="6" r:id="rId3"/>
     <sheet name="Age_15" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>Pearson</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>Cosine</t>
+  </si>
+  <si>
+    <t>Cosine without Age</t>
+  </si>
+  <si>
+    <t>Cosine with Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          MAE            K</t>
   </si>
 </sst>
 </file>
@@ -5243,6 +5253,475 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1306666336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cosine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Similarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosine without Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F5-488B-B200-F531E951F86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosine with Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00F5-488B-B200-F531E951F86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1583199584"/>
+        <c:axId val="1583202496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1583199584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583202496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1583202496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583199584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5651,6 +6130,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -9418,6 +9937,544 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10275,6 +11332,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD07C34-3991-4F4D-B5AD-22F92F3FE5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10575,7 +11673,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11177,7 +12275,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11397,7 +12495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E49A9A-1F5C-4655-89E0-8D1DD6492583}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11610,4 +12710,58 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8E72AE-11C0-4D13-9C77-1F64431ADD77}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>